--- a/medicine/Pharmacie/Classe_ATC_D11/Classe_ATC_D11.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D11/Classe_ATC_D11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D11, dénommée « Autres préparations dermatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD11[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D11, dénommée « Autres préparations dermatologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD11. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,30 +525,207 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D11AA Antisudoraux
-Vide
-D11AC Shampooing médicamenteux
-D11AC01 Cétrimide (en)
+          <t>D11AA Antisudoraux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D11A Autres préparations dermatologiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D11AC Shampooing médicamenteux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D11AC01 Cétrimide (en)
 D11AC02 Composés du cadmium
 D11AC03 Composés du sélénium
 D11AC06 Polyvidone iodée
 D11AC08 Composés soufrés
 D11AC09 Xénysalate
-D11AC30 Autres
-D11AE Androgènes à usage topique
-D11AE01 Métandiénone
-D11AF Verrucides et coricides
-Groupe vide
-D11AH Agents pour dermatite, excluant les corticostéroïdes
-D11AH01 Tacrolimus
+D11AC30 Autres</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D11A Autres préparations dermatologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D11AE Androgènes à usage topique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D11AE01 Métandiénone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D11A Autres préparations dermatologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D11AF Verrucides et coricides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D11A Autres préparations dermatologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D11AH Agents pour dermatite, excluant les corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D11AH01 Tacrolimus
 D11AH02 Pimécrolimus
 D11AH03 Acide cromoglicique
 D11AH04 Alitrétinoïne
 D11AH05 Dupilumab
 « QD11AH90 » Oclacitinib
-QD11AH91 Lokivetmab
-D11AX Autres médicaments dermatologiques
-D11AX01 Minoxidil
+QD11AH91 Lokivetmab</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D11A Autres préparations dermatologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D11AX Autres médicaments dermatologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D11AX01 Minoxidil
 D11AX02 Acide gamolénique
 D11AX03 Gluconate de calcium
 D11AX04 Succinate de lithium
